--- a/3861官网重构功能点文档.xlsx
+++ b/3861官网重构功能点文档.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakee\Desktop\demo\3861\NEWPCDemos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>模块</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -187,9 +187,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ****图片选中样式待UI输出</t>
-  </si>
-  <si>
     <t xml:space="preserve">1&gt;鼠标移过去后显示相关信息              </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,7 +229,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ****界面样式待UI输出</t>
+    <t>5&gt;新需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&gt; 官网首页 顶部 改版</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页头部由UI重新设计，UI图已经输出，等待开发。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -327,17 +332,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
@@ -345,6 +344,15 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -662,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H29"/>
+  <dimension ref="B4:H30"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -674,404 +682,407 @@
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>53</v>
+      <c r="H30" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D18:E20"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="D23:E25"/>
-    <mergeCell ref="B23:C26"/>
+  <mergeCells count="23">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="D14:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -1083,6 +1094,16 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D23:E25"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B27:C29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1091,65 +1112,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:U8"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
